--- a/public/assets/fbr_invoice_template.xlsx
+++ b/public/assets/fbr_invoice_template.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hammad.ali\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t>invoiceRefNo</t>
+  </si>
   <si>
     <t>invoiceType</t>
   </si>
@@ -54,9 +52,6 @@
     <t>buyerRegistrationType</t>
   </si>
   <si>
-    <t>invoiceRefNo</t>
-  </si>
-  <si>
     <t>scenarioId</t>
   </si>
   <si>
@@ -109,13 +104,64 @@
   </si>
   <si>
     <t>sroItemSerialNo</t>
+  </si>
+  <si>
+    <t>INV-1001</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>1234567-8</t>
+  </si>
+  <si>
+    <t>ABC Traders</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>123 Main Road, Lahore</t>
+  </si>
+  <si>
+    <t>9876543-2</t>
+  </si>
+  <si>
+    <t>XYZ Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Sindh</t>
+  </si>
+  <si>
+    <t>45 Market Area, Karachi</t>
+  </si>
+  <si>
+    <t>Registered</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1001.90</t>
+  </si>
+  <si>
+    <t>Rice Bags 25kg</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Local</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,14 +224,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -232,7 +270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,10 +302,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,7 +336,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,48 +511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="17" customWidth="1"/>
-    <col min="20" max="20" width="28.140625" customWidth="1"/>
-    <col min="21" max="21" width="30.28515625" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" customWidth="1"/>
-    <col min="23" max="23" width="30" customWidth="1"/>
-    <col min="24" max="24" width="18.42578125" customWidth="1"/>
-    <col min="25" max="25" width="17.85546875" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1"/>
-    <col min="28" max="28" width="15.5703125" customWidth="1"/>
-    <col min="29" max="29" width="16.140625" customWidth="1"/>
-    <col min="30" max="30" width="19.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,6 +608,89 @@
       </c>
       <c r="AD1" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2">
+        <v>3000</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>30000</v>
+      </c>
+      <c r="T2">
+        <v>28500</v>
+      </c>
+      <c r="V2">
+        <v>2550</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
